--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>870762.038443625</v>
+        <v>866577.2172944555</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6463284.468165411</v>
+        <v>6463284.468165407</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>37.73383338356604</v>
       </c>
       <c r="D11" t="n">
-        <v>352.3954878227169</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>31.66775530976515</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>7.68945634483025</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1587,7 +1587,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>281.6008363880921</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>143.483380004472</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>21.90904378023721</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>154.4368869916655</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1852,13 +1852,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>21.22086188256197</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>128.3640563204304</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>110.2762206011273</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.4490654225683</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,13 +2092,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>36.16739218089744</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>60.07073011995545</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>212.039965525038</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2323,16 +2323,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>345.1935636782502</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>242.7931268709091</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>83.47006257503806</v>
+        <v>83.47006257503804</v>
       </c>
       <c r="H24" t="n">
         <v>31.06956703172742</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803938</v>
       </c>
       <c r="T24" t="n">
         <v>124.5995722140058</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>38.21077633130495</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>116.9294005807333</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.62017337824729</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U26" t="n">
-        <v>256.471413082989</v>
+        <v>90.03879124572447</v>
       </c>
       <c r="V26" t="n">
-        <v>199.1737702626165</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>83.47006257503806</v>
+        <v>83.47006257503804</v>
       </c>
       <c r="H27" t="n">
         <v>31.06956703172742</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803938</v>
       </c>
       <c r="T27" t="n">
         <v>124.5995722140058</v>
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>16.13626634197823</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>127.1268542457184</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>163.9081593544642</v>
       </c>
       <c r="V29" t="n">
-        <v>356.6031503669496</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.47006257503806</v>
+        <v>83.47006257503804</v>
       </c>
       <c r="H30" t="n">
         <v>31.06956703172742</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803938</v>
       </c>
       <c r="T30" t="n">
         <v>124.5995722140058</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.13626634197919</v>
+        <v>96.02839576784098</v>
       </c>
       <c r="T31" t="n">
         <v>239.619400782111</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>289.0510167575574</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.62017337824729</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>90.54799329015742</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>83.47006257503806</v>
+        <v>83.47006257503804</v>
       </c>
       <c r="H33" t="n">
         <v>31.06956703172742</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803938</v>
       </c>
       <c r="T33" t="n">
         <v>124.5995722140058</v>
@@ -3192,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>17.30977151841038</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>26.55314915788221</v>
       </c>
       <c r="G34" t="n">
         <v>163.0457076940604</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T34" t="n">
         <v>239.619400782111</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.09496323946048</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3274,16 +3274,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T35" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>242.7931268709083</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>83.47006257503806</v>
+        <v>83.47006257503804</v>
       </c>
       <c r="H36" t="n">
         <v>31.06956703172742</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803938</v>
       </c>
       <c r="T36" t="n">
         <v>124.5995722140058</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>105.3082805559564</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>48.93154695867202</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.502128271564152</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,13 +3511,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>149.8316587002209</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>265.9270524809863</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.62017337824729</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.47006257503806</v>
+        <v>83.47006257503804</v>
       </c>
       <c r="H39" t="n">
         <v>31.06956703172742</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803938</v>
       </c>
       <c r="T39" t="n">
         <v>124.5995722140058</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>44.82765786241927</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>48.93154695867246</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>67.9082170945823</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4005208984156</v>
+        <v>49.36750800246655</v>
       </c>
       <c r="H41" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.62017337824727</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.47006257503806</v>
+        <v>83.47006257503804</v>
       </c>
       <c r="H42" t="n">
         <v>31.06956703172742</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803938</v>
       </c>
       <c r="T42" t="n">
         <v>124.5995722140058</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>119.6894567932739</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>130.593315014692</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.1447028811674</v>
+        <v>108.609892701261</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U43" t="n">
         <v>275.6001441286783</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>48.48081719669405</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.62017337824729</v>
+        <v>37.62017337824727</v>
       </c>
       <c r="T44" t="n">
         <v>209.1845183053605</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>313.3255412281412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.47006257503806</v>
+        <v>83.47006257503804</v>
       </c>
       <c r="H45" t="n">
         <v>31.06956703172742</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.1099995480394</v>
+        <v>43.10999954803938</v>
       </c>
       <c r="T45" t="n">
         <v>124.5995722140058</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,7 +4152,7 @@
         <v>163.0457076940604</v>
       </c>
       <c r="H46" t="n">
-        <v>130.593315014692</v>
+        <v>98.23201001121757</v>
       </c>
       <c r="I46" t="n">
         <v>61.01901167430096</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T46" t="n">
         <v>239.619400782111</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>214.8703253767709</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.028006962829</v>
+        <v>513.1889643554703</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.028006962829</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>921.4750880558169</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>513.1889643554703</v>
       </c>
     </row>
     <row r="12">
@@ -5102,22 +5102,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.0817647851416</v>
+        <v>758.6107344189465</v>
       </c>
       <c r="C13" t="n">
-        <v>616.0817647851416</v>
+        <v>586.0490229021715</v>
       </c>
       <c r="D13" t="n">
-        <v>616.0817647851416</v>
+        <v>420.1710301036942</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>250.4130263544315</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G13" t="n">
         <v>242.6458987333908</v>
@@ -5196,28 +5196,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>413.3628026016838</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>550.4276429928788</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270316</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856608</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1177.849023823826</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041287</v>
+        <v>950.4293531379337</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>765.4265856715607</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="C14" t="n">
-        <v>765.4265856715607</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D14" t="n">
-        <v>765.4265856715607</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6518408298559</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>331.6518408298559</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
         <v>47.20655154895474</v>
@@ -5275,16 +5275,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5299,31 +5299,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2174.92850058731</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2174.92850058731</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>2174.92850058731</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>2174.92850058731</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>2174.92850058731</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715607</v>
+        <v>2174.92850058731</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>941.8604769596211</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
@@ -5439,22 +5439,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725809</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645513</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y16" t="n">
-        <v>941.8604769596211</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>904.0542417178229</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C17" t="n">
-        <v>904.0542417178229</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D17" t="n">
-        <v>468.1444568922674</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895474</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.256885969251</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.639935903077</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="W17" t="n">
-        <v>1738.639935903077</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X17" t="n">
-        <v>1738.639935903077</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y17" t="n">
-        <v>1330.353812202731</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="18">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.1113136517137</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D19" t="n">
         <v>393.6716093364613</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>554.1085916646776</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>1138.289667082993</v>
       </c>
       <c r="N19" t="n">
-        <v>1364.434443083199</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2248.937455628417</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2006.690231531823</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1728.303599580566</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1441.348091450997</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.321687037288</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X19" t="n">
-        <v>923.9299323707007</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435809</v>
@@ -5758,7 +5758,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2283.32848828789</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="Y20" t="n">
-        <v>1952.04145374739</v>
+        <v>2024.257796809404</v>
       </c>
     </row>
     <row r="21">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.5338374743685</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C22" t="n">
-        <v>749.9721259575934</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D22" t="n">
-        <v>584.0941331591162</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>107.8840567206269</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5940,22 +5940,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>2146.145794089113</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1859.190285959543</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.163881545835</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X22" t="n">
-        <v>1341.772126879247</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>1114.352456193356</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1315.307220214119</v>
+        <v>1785.597284327424</v>
       </c>
       <c r="C23" t="n">
-        <v>877.1647473975427</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D23" t="n">
-        <v>877.1647473975427</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E23" t="n">
-        <v>877.1647473975427</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F23" t="n">
-        <v>449.2973178067504</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="G23" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H23" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I23" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296506</v>
       </c>
       <c r="J23" t="n">
-        <v>291.8416560478771</v>
+        <v>291.8416560478781</v>
       </c>
       <c r="K23" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863834</v>
       </c>
       <c r="L23" t="n">
-        <v>851.4609156385205</v>
+        <v>851.4609156385217</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838218</v>
       </c>
       <c r="N23" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125325</v>
       </c>
       <c r="O23" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P23" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776933</v>
       </c>
       <c r="Q23" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R23" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S23" t="n">
-        <v>2495.142612639762</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T23" t="n">
-        <v>2495.142612639762</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="U23" t="n">
-        <v>2495.142612639762</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="V23" t="n">
-        <v>2146.462245287994</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="W23" t="n">
-        <v>1741.606790699027</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="X23" t="n">
-        <v>1741.606790699027</v>
+        <v>2211.896854812332</v>
       </c>
       <c r="Y23" t="n">
-        <v>1741.606790699027</v>
+        <v>2211.896854812332</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G24" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H24" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I24" t="n">
-        <v>86.07360363779618</v>
+        <v>86.07360363779621</v>
       </c>
       <c r="J24" t="n">
-        <v>90.34627405869671</v>
+        <v>185.3289100816567</v>
       </c>
       <c r="K24" t="n">
-        <v>259.989401923866</v>
+        <v>354.9720379468262</v>
       </c>
       <c r="L24" t="n">
-        <v>488.0955226008687</v>
+        <v>583.0781586238289</v>
       </c>
       <c r="M24" t="n">
-        <v>754.2846063602958</v>
+        <v>849.2672423832561</v>
       </c>
       <c r="N24" t="n">
-        <v>1027.518923096496</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O24" t="n">
-        <v>1277.474942253457</v>
+        <v>1372.457578276418</v>
       </c>
       <c r="P24" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.069320161789</v>
       </c>
       <c r="Q24" t="n">
-        <v>1612.190320866099</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R24" t="n">
         <v>1677.417474573878</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.8076143555542</v>
+        <v>607.5263653260718</v>
       </c>
       <c r="C25" t="n">
-        <v>562.2459028387791</v>
+        <v>434.9646538092967</v>
       </c>
       <c r="D25" t="n">
-        <v>396.3679100403018</v>
+        <v>434.9646538092967</v>
       </c>
       <c r="E25" t="n">
-        <v>226.609906291039</v>
+        <v>265.206650060034</v>
       </c>
       <c r="F25" t="n">
-        <v>49.90285225279524</v>
+        <v>88.49959602179015</v>
       </c>
       <c r="G25" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H25" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I25" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="J25" t="n">
         <v>198.7521269616892</v>
       </c>
       <c r="K25" t="n">
-        <v>575.8386456160096</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L25" t="n">
-        <v>1124.993219091044</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M25" t="n">
         <v>1263.056036695611</v>
@@ -6162,37 +6162,37 @@
         <v>1397.836029083111</v>
       </c>
       <c r="O25" t="n">
-        <v>1780.557322929479</v>
+        <v>1780.55732292948</v>
       </c>
       <c r="P25" t="n">
-        <v>2234.587891748232</v>
+        <v>2234.587891748233</v>
       </c>
       <c r="Q25" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R25" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S25" t="n">
         <v>2351.562104678987</v>
       </c>
       <c r="T25" t="n">
-        <v>2109.522305909177</v>
+        <v>2109.522305909178</v>
       </c>
       <c r="U25" t="n">
-        <v>1831.138321940815</v>
+        <v>1831.138321940816</v>
       </c>
       <c r="V25" t="n">
-        <v>1544.182813811246</v>
+        <v>1544.182813811247</v>
       </c>
       <c r="W25" t="n">
-        <v>1272.156409397537</v>
+        <v>1272.156409397538</v>
       </c>
       <c r="X25" t="n">
-        <v>1154.045903760433</v>
+        <v>1026.764654730951</v>
       </c>
       <c r="Y25" t="n">
-        <v>926.6262330745412</v>
+        <v>799.3449840450589</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1785.597284327424</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="C26" t="n">
         <v>1347.454811510848</v>
@@ -6214,64 +6214,64 @@
         <v>477.7702818435875</v>
       </c>
       <c r="F26" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="G26" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I26" t="n">
-        <v>125.1921461296491</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J26" t="n">
-        <v>291.8416560478764</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K26" t="n">
-        <v>541.6060719863817</v>
+        <v>541.6060719863826</v>
       </c>
       <c r="L26" t="n">
-        <v>851.4609156385199</v>
+        <v>851.460915638521</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N26" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125325</v>
       </c>
       <c r="O26" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P26" t="n">
-        <v>2159.767192776931</v>
+        <v>2159.767192776933</v>
       </c>
       <c r="Q26" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R26" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S26" t="n">
-        <v>2457.142437510218</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="T26" t="n">
-        <v>2245.84494427248</v>
+        <v>2283.845119402025</v>
       </c>
       <c r="U26" t="n">
-        <v>1986.78291085532</v>
+        <v>2192.896845416445</v>
       </c>
       <c r="V26" t="n">
-        <v>1785.597284327424</v>
+        <v>2192.896845416445</v>
       </c>
       <c r="W26" t="n">
-        <v>1785.597284327424</v>
+        <v>2192.896845416445</v>
       </c>
       <c r="X26" t="n">
-        <v>1785.597284327424</v>
+        <v>1773.754381995755</v>
       </c>
       <c r="Y26" t="n">
-        <v>1785.597284327424</v>
+        <v>1773.754381995755</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G27" t="n">
-        <v>81.28625329494413</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H27" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I27" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779621</v>
       </c>
       <c r="J27" t="n">
-        <v>185.3289100816567</v>
+        <v>90.34627405869539</v>
       </c>
       <c r="K27" t="n">
-        <v>354.972037946826</v>
+        <v>259.9894019238648</v>
       </c>
       <c r="L27" t="n">
-        <v>583.0781586238287</v>
+        <v>488.0955226008676</v>
       </c>
       <c r="M27" t="n">
-        <v>754.2846063602958</v>
+        <v>754.2846063602948</v>
       </c>
       <c r="N27" t="n">
-        <v>1027.518923096496</v>
+        <v>1027.518923096495</v>
       </c>
       <c r="O27" t="n">
-        <v>1277.474942253457</v>
+        <v>1277.474942253456</v>
       </c>
       <c r="P27" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q27" t="n">
-        <v>1612.190320866099</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R27" t="n">
         <v>1677.417474573878</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>751.1068732868453</v>
+        <v>751.1068732868471</v>
       </c>
       <c r="C28" t="n">
-        <v>578.5451617700702</v>
+        <v>751.1068732868471</v>
       </c>
       <c r="D28" t="n">
-        <v>412.6671689715929</v>
+        <v>751.1068732868471</v>
       </c>
       <c r="E28" t="n">
-        <v>242.9091652223302</v>
+        <v>581.3488695375843</v>
       </c>
       <c r="F28" t="n">
-        <v>66.20211118408636</v>
+        <v>404.6418154993405</v>
       </c>
       <c r="G28" t="n">
-        <v>49.90285225279522</v>
+        <v>239.9491814649361</v>
       </c>
       <c r="H28" t="n">
-        <v>49.90285225279522</v>
+        <v>111.538217580372</v>
       </c>
       <c r="I28" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="J28" t="n">
         <v>198.7521269616892</v>
       </c>
       <c r="K28" t="n">
-        <v>575.8386456160096</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L28" t="n">
-        <v>1124.993219091044</v>
+        <v>963.5541259678643</v>
       </c>
       <c r="M28" t="n">
-        <v>1263.056036695611</v>
+        <v>1101.616943572431</v>
       </c>
       <c r="N28" t="n">
-        <v>1397.836029083111</v>
+        <v>1236.396935959931</v>
       </c>
       <c r="O28" t="n">
-        <v>1780.557322929478</v>
+        <v>1780.55732292948</v>
       </c>
       <c r="P28" t="n">
-        <v>2234.587891748231</v>
+        <v>2234.587891748233</v>
       </c>
       <c r="Q28" t="n">
-        <v>2476.532137525725</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R28" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S28" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.102813869952</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U28" t="n">
-        <v>1974.71882990159</v>
+        <v>1974.718829901592</v>
       </c>
       <c r="V28" t="n">
-        <v>1687.76332177202</v>
+        <v>1687.763321772022</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.736917358312</v>
+        <v>1415.736917358314</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.345162691724</v>
+        <v>1170.345162691726</v>
       </c>
       <c r="Y28" t="n">
-        <v>942.9254920058324</v>
+        <v>942.9254920058343</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1310.939492239248</v>
+        <v>1153.820286956535</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.939492239248</v>
+        <v>1153.820286956535</v>
       </c>
       <c r="D29" t="n">
-        <v>1310.939492239248</v>
+        <v>717.910502130979</v>
       </c>
       <c r="E29" t="n">
-        <v>877.1647473975427</v>
+        <v>717.910502130979</v>
       </c>
       <c r="F29" t="n">
-        <v>449.2973178067504</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G29" t="n">
-        <v>49.90285225279524</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I29" t="n">
         <v>125.1921461296497</v>
       </c>
       <c r="J29" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478776</v>
       </c>
       <c r="K29" t="n">
-        <v>541.6060719863825</v>
+        <v>541.606071986383</v>
       </c>
       <c r="L29" t="n">
-        <v>851.4609156385205</v>
+        <v>851.4609156385212</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N29" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125325</v>
       </c>
       <c r="O29" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P29" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776933</v>
       </c>
       <c r="Q29" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R29" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S29" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="T29" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="U29" t="n">
-        <v>2495.142612639762</v>
+        <v>2329.578815312021</v>
       </c>
       <c r="V29" t="n">
-        <v>2134.937410248904</v>
+        <v>1966.961865245848</v>
       </c>
       <c r="W29" t="n">
-        <v>1730.081955659937</v>
+        <v>1562.106410656881</v>
       </c>
       <c r="X29" t="n">
-        <v>1310.939492239248</v>
+        <v>1562.106410656881</v>
       </c>
       <c r="Y29" t="n">
-        <v>1310.939492239248</v>
+        <v>1153.820286956535</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G30" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H30" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I30" t="n">
-        <v>49.90285225279524</v>
+        <v>86.07360363779621</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1581586966558</v>
+        <v>90.3462740586958</v>
       </c>
       <c r="K30" t="n">
-        <v>318.8012865618251</v>
+        <v>259.9894019238652</v>
       </c>
       <c r="L30" t="n">
-        <v>546.9074072388279</v>
+        <v>488.0955226008679</v>
       </c>
       <c r="M30" t="n">
-        <v>813.096490998255</v>
+        <v>754.2846063602951</v>
       </c>
       <c r="N30" t="n">
-        <v>1086.330807734455</v>
+        <v>1027.518923096495</v>
       </c>
       <c r="O30" t="n">
-        <v>1336.286826891416</v>
+        <v>1277.474942253456</v>
       </c>
       <c r="P30" t="n">
-        <v>1536.898568776788</v>
+        <v>1478.086684138829</v>
       </c>
       <c r="Q30" t="n">
-        <v>1671.002205504058</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R30" t="n">
         <v>1677.417474573878</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.8076143555542</v>
+        <v>899.5002483899586</v>
       </c>
       <c r="C31" t="n">
-        <v>562.2459028387791</v>
+        <v>726.9385368731836</v>
       </c>
       <c r="D31" t="n">
-        <v>396.3679100403018</v>
+        <v>561.0605440747063</v>
       </c>
       <c r="E31" t="n">
-        <v>226.609906291039</v>
+        <v>391.3025403254435</v>
       </c>
       <c r="F31" t="n">
-        <v>49.90285225279524</v>
+        <v>214.5954862871997</v>
       </c>
       <c r="G31" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H31" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="J31" t="n">
         <v>198.7521269616892</v>
@@ -6627,46 +6627,46 @@
         <v>575.8386456160097</v>
       </c>
       <c r="L31" t="n">
-        <v>923.7395080127317</v>
+        <v>828.9875988254299</v>
       </c>
       <c r="M31" t="n">
-        <v>1521.286192798211</v>
+        <v>1426.534283610909</v>
       </c>
       <c r="N31" t="n">
-        <v>1656.066185185711</v>
+        <v>2003.573079156054</v>
       </c>
       <c r="O31" t="n">
-        <v>1780.557322929479</v>
+        <v>2128.064216899822</v>
       </c>
       <c r="P31" t="n">
-        <v>2234.587891748232</v>
+        <v>2234.587891748233</v>
       </c>
       <c r="Q31" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R31" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S31" t="n">
-        <v>2478.84335370847</v>
+        <v>2398.144233076287</v>
       </c>
       <c r="T31" t="n">
-        <v>2236.80355493866</v>
+        <v>2156.104434306478</v>
       </c>
       <c r="U31" t="n">
-        <v>1958.419570970299</v>
+        <v>1877.720450338116</v>
       </c>
       <c r="V31" t="n">
-        <v>1671.464062840729</v>
+        <v>1590.764942208546</v>
       </c>
       <c r="W31" t="n">
-        <v>1399.437658427021</v>
+        <v>1318.738537794838</v>
       </c>
       <c r="X31" t="n">
-        <v>1154.045903760433</v>
+        <v>1318.738537794838</v>
       </c>
       <c r="Y31" t="n">
-        <v>926.6262330745412</v>
+        <v>1091.318867108946</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1583.920404538348</v>
+        <v>1649.700578734165</v>
       </c>
       <c r="C32" t="n">
-        <v>1145.777931721771</v>
+        <v>1211.558105917588</v>
       </c>
       <c r="D32" t="n">
-        <v>1145.777931721771</v>
+        <v>775.6483210920328</v>
       </c>
       <c r="E32" t="n">
-        <v>1145.777931721771</v>
+        <v>341.873576250328</v>
       </c>
       <c r="F32" t="n">
-        <v>717.910502130979</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="G32" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I32" t="n">
-        <v>125.192146129649</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J32" t="n">
-        <v>291.8416560478764</v>
+        <v>291.8416560478767</v>
       </c>
       <c r="K32" t="n">
-        <v>541.6060719863817</v>
+        <v>541.6060719863822</v>
       </c>
       <c r="L32" t="n">
-        <v>851.4609156385199</v>
+        <v>851.4609156385204</v>
       </c>
       <c r="M32" t="n">
-        <v>1196.234131838215</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N32" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O32" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P32" t="n">
-        <v>2159.767192776931</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q32" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S32" t="n">
-        <v>2457.142437510218</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.679818025211</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.679818025211</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="V32" t="n">
-        <v>2003.062867959037</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="W32" t="n">
-        <v>2003.062867959037</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="X32" t="n">
-        <v>1583.920404538348</v>
+        <v>2076.000149219073</v>
       </c>
       <c r="Y32" t="n">
-        <v>1583.920404538348</v>
+        <v>2076.000149219073</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G33" t="n">
-        <v>81.28625329494413</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H33" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I33" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J33" t="n">
-        <v>185.3289100816567</v>
+        <v>90.3462740586958</v>
       </c>
       <c r="K33" t="n">
-        <v>354.972037946826</v>
+        <v>259.9894019238652</v>
       </c>
       <c r="L33" t="n">
-        <v>583.0781586238287</v>
+        <v>488.0955226008679</v>
       </c>
       <c r="M33" t="n">
-        <v>849.2672423832558</v>
+        <v>754.2846063602951</v>
       </c>
       <c r="N33" t="n">
-        <v>1122.501559119456</v>
+        <v>1027.518923096495</v>
       </c>
       <c r="O33" t="n">
-        <v>1372.457578276417</v>
+        <v>1277.474942253456</v>
       </c>
       <c r="P33" t="n">
-        <v>1573.069320161789</v>
+        <v>1478.086684138829</v>
       </c>
       <c r="Q33" t="n">
-        <v>1677.417474573878</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R33" t="n">
         <v>1677.417474573878</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>751.1068732868453</v>
+        <v>607.5263653260708</v>
       </c>
       <c r="C34" t="n">
-        <v>578.5451617700702</v>
+        <v>434.9646538092958</v>
       </c>
       <c r="D34" t="n">
-        <v>561.0605440747062</v>
+        <v>434.9646538092958</v>
       </c>
       <c r="E34" t="n">
-        <v>391.3025403254434</v>
+        <v>434.9646538092958</v>
       </c>
       <c r="F34" t="n">
-        <v>214.5954862871996</v>
+        <v>408.1432910235562</v>
       </c>
       <c r="G34" t="n">
-        <v>49.90285225279522</v>
+        <v>243.4506569891518</v>
       </c>
       <c r="H34" t="n">
-        <v>49.90285225279522</v>
+        <v>111.538217580372</v>
       </c>
       <c r="I34" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J34" t="n">
         <v>198.7521269616892</v>
       </c>
       <c r="K34" t="n">
-        <v>575.8386456160096</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L34" t="n">
-        <v>706.7833373230835</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M34" t="n">
-        <v>844.8461549276495</v>
+        <v>1521.286192798211</v>
       </c>
       <c r="N34" t="n">
-        <v>1236.396935959929</v>
+        <v>1656.066185185711</v>
       </c>
       <c r="O34" t="n">
-        <v>1780.557322929478</v>
+        <v>1780.557322929479</v>
       </c>
       <c r="P34" t="n">
-        <v>2234.587891748231</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q34" t="n">
-        <v>2476.532137525725</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R34" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S34" t="n">
-        <v>2495.142612639761</v>
+        <v>2351.562104678987</v>
       </c>
       <c r="T34" t="n">
-        <v>2253.102813869952</v>
+        <v>2109.522305909177</v>
       </c>
       <c r="U34" t="n">
-        <v>1974.71882990159</v>
+        <v>1831.138321940815</v>
       </c>
       <c r="V34" t="n">
-        <v>1687.76332177202</v>
+        <v>1544.182813811246</v>
       </c>
       <c r="W34" t="n">
-        <v>1415.736917358312</v>
+        <v>1272.156409397537</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.345162691724</v>
+        <v>1026.76465473095</v>
       </c>
       <c r="Y34" t="n">
-        <v>942.9254920058324</v>
+        <v>799.344984045058</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1192.568294219156</v>
+        <v>1785.597284327424</v>
       </c>
       <c r="C35" t="n">
-        <v>754.4258214025795</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D35" t="n">
-        <v>318.5160365770239</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E35" t="n">
-        <v>318.5160365770239</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F35" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="G35" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H35" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I35" t="n">
-        <v>125.192146129649</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J35" t="n">
-        <v>291.8416560478763</v>
+        <v>291.8416560478766</v>
       </c>
       <c r="K35" t="n">
-        <v>541.6060719863817</v>
+        <v>541.6060719863819</v>
       </c>
       <c r="L35" t="n">
-        <v>851.4609156385199</v>
+        <v>851.4609156385203</v>
       </c>
       <c r="M35" t="n">
         <v>1196.234131838216</v>
       </c>
       <c r="N35" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O35" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P35" t="n">
-        <v>2159.767192776931</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q35" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R35" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S35" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T35" t="n">
-        <v>2283.845119402023</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.783085984863</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.166135918689</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="W35" t="n">
-        <v>1257.310681329722</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="X35" t="n">
-        <v>1257.310681329722</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="Y35" t="n">
-        <v>1257.310681329722</v>
+        <v>2211.896854812332</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G36" t="n">
-        <v>81.28625329494413</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H36" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I36" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J36" t="n">
         <v>185.3289100816567</v>
       </c>
       <c r="K36" t="n">
-        <v>354.972037946826</v>
+        <v>354.9720379468261</v>
       </c>
       <c r="L36" t="n">
-        <v>583.0781586238287</v>
+        <v>583.0781586238289</v>
       </c>
       <c r="M36" t="n">
-        <v>849.2672423832558</v>
+        <v>849.2672423832561</v>
       </c>
       <c r="N36" t="n">
         <v>1122.501559119456</v>
       </c>
       <c r="O36" t="n">
-        <v>1372.457578276417</v>
+        <v>1372.457578276418</v>
       </c>
       <c r="P36" t="n">
-        <v>1573.069320161789</v>
+        <v>1478.086684138829</v>
       </c>
       <c r="Q36" t="n">
-        <v>1677.417474573878</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R36" t="n">
         <v>1677.417474573878</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>607.5263653260699</v>
+        <v>799.344984045058</v>
       </c>
       <c r="C37" t="n">
-        <v>434.9646538092949</v>
+        <v>799.344984045058</v>
       </c>
       <c r="D37" t="n">
-        <v>269.0866610108176</v>
+        <v>692.9729834834859</v>
       </c>
       <c r="E37" t="n">
-        <v>99.32865726155484</v>
+        <v>523.2149797342232</v>
       </c>
       <c r="F37" t="n">
-        <v>49.90285225279522</v>
+        <v>346.5079256959795</v>
       </c>
       <c r="G37" t="n">
-        <v>49.90285225279522</v>
+        <v>181.815291661575</v>
       </c>
       <c r="H37" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I37" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J37" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969994</v>
       </c>
       <c r="K37" t="n">
-        <v>575.8386456160096</v>
+        <v>214.5005058801842</v>
       </c>
       <c r="L37" t="n">
-        <v>1124.993219091044</v>
+        <v>577.5111244639796</v>
       </c>
       <c r="M37" t="n">
-        <v>1521.28619279821</v>
+        <v>1175.057809249459</v>
       </c>
       <c r="N37" t="n">
-        <v>1656.06618518571</v>
+        <v>1752.096604794604</v>
       </c>
       <c r="O37" t="n">
-        <v>1780.557322929478</v>
+        <v>2296.256991764153</v>
       </c>
       <c r="P37" t="n">
-        <v>2234.587891748231</v>
+        <v>2402.780666612564</v>
       </c>
       <c r="Q37" t="n">
-        <v>2476.532137525725</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R37" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S37" t="n">
-        <v>2351.562104678986</v>
+        <v>2351.562104678987</v>
       </c>
       <c r="T37" t="n">
-        <v>2109.522305909176</v>
+        <v>2109.522305909177</v>
       </c>
       <c r="U37" t="n">
-        <v>1831.138321940814</v>
+        <v>1831.138321940815</v>
       </c>
       <c r="V37" t="n">
-        <v>1544.182813811245</v>
+        <v>1544.182813811246</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.156409397536</v>
+        <v>1272.156409397537</v>
       </c>
       <c r="X37" t="n">
-        <v>1026.764654730949</v>
+        <v>1026.76465473095</v>
       </c>
       <c r="Y37" t="n">
-        <v>799.3449840450571</v>
+        <v>799.344984045058</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2453.604934205609</v>
+        <v>1771.780833608151</v>
       </c>
       <c r="C38" t="n">
-        <v>2015.462461389032</v>
+        <v>1333.638360791575</v>
       </c>
       <c r="D38" t="n">
-        <v>1579.552676563476</v>
+        <v>897.728575966019</v>
       </c>
       <c r="E38" t="n">
-        <v>1145.777931721771</v>
+        <v>746.3834661678161</v>
       </c>
       <c r="F38" t="n">
-        <v>717.910502130979</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="G38" t="n">
         <v>318.5160365770239</v>
       </c>
       <c r="H38" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1921461296493</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J38" t="n">
-        <v>291.8416560478767</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K38" t="n">
-        <v>541.6060719863819</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L38" t="n">
-        <v>851.4609156385201</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N38" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O38" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P38" t="n">
         <v>2159.767192776932</v>
       </c>
       <c r="Q38" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R38" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S38" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T38" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="U38" t="n">
-        <v>2457.142437510219</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="V38" t="n">
-        <v>2457.142437510219</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="W38" t="n">
-        <v>2457.142437510219</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="X38" t="n">
-        <v>2457.142437510219</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="Y38" t="n">
-        <v>2457.142437510219</v>
+        <v>2198.080404093059</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G39" t="n">
-        <v>81.28625329494413</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H39" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I39" t="n">
-        <v>49.90285225279523</v>
+        <v>86.0736036377962</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1581586966558</v>
+        <v>90.3462740586958</v>
       </c>
       <c r="K39" t="n">
-        <v>318.8012865618251</v>
+        <v>259.9894019238652</v>
       </c>
       <c r="L39" t="n">
-        <v>546.9074072388278</v>
+        <v>488.0955226008679</v>
       </c>
       <c r="M39" t="n">
-        <v>813.0964909982549</v>
+        <v>754.2846063602951</v>
       </c>
       <c r="N39" t="n">
-        <v>1086.330807734455</v>
+        <v>1027.518923096495</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.286826891416</v>
+        <v>1277.474942253456</v>
       </c>
       <c r="P39" t="n">
-        <v>1536.898568776788</v>
+        <v>1478.086684138829</v>
       </c>
       <c r="Q39" t="n">
-        <v>1671.002205504058</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R39" t="n">
         <v>1677.417474573878</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.5263653260704</v>
+        <v>607.5263653260713</v>
       </c>
       <c r="C40" t="n">
-        <v>434.9646538092953</v>
+        <v>562.2459028387791</v>
       </c>
       <c r="D40" t="n">
-        <v>269.086661010818</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E40" t="n">
-        <v>99.32865726155529</v>
+        <v>226.609906291039</v>
       </c>
       <c r="F40" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="G40" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="H40" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I40" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="J40" t="n">
         <v>198.7521269616892</v>
       </c>
       <c r="K40" t="n">
-        <v>575.8386456160096</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L40" t="n">
-        <v>706.7833373230835</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M40" t="n">
-        <v>1006.865034385126</v>
+        <v>1521.286192798211</v>
       </c>
       <c r="N40" t="n">
-        <v>1583.903829930271</v>
+        <v>1656.066185185711</v>
       </c>
       <c r="O40" t="n">
-        <v>2128.064216899821</v>
+        <v>1780.557322929479</v>
       </c>
       <c r="P40" t="n">
-        <v>2234.587891748231</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q40" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R40" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S40" t="n">
-        <v>2351.562104678986</v>
+        <v>2351.562104678987</v>
       </c>
       <c r="T40" t="n">
-        <v>2109.522305909177</v>
+        <v>2109.522305909178</v>
       </c>
       <c r="U40" t="n">
-        <v>1831.138321940815</v>
+        <v>1831.138321940816</v>
       </c>
       <c r="V40" t="n">
-        <v>1544.182813811245</v>
+        <v>1544.182813811246</v>
       </c>
       <c r="W40" t="n">
-        <v>1272.156409397537</v>
+        <v>1272.156409397538</v>
       </c>
       <c r="X40" t="n">
-        <v>1026.764654730949</v>
+        <v>1026.76465473095</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.3449840450576</v>
+        <v>799.3449840450585</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1660.556918454507</v>
+        <v>1835.463454026886</v>
       </c>
       <c r="C41" t="n">
-        <v>1222.414445637931</v>
+        <v>1397.320981210309</v>
       </c>
       <c r="D41" t="n">
-        <v>786.5046608123753</v>
+        <v>961.4111963847536</v>
       </c>
       <c r="E41" t="n">
-        <v>786.5046608123753</v>
+        <v>527.6364515430487</v>
       </c>
       <c r="F41" t="n">
-        <v>717.910502130979</v>
+        <v>99.76902195225642</v>
       </c>
       <c r="G41" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H41" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I41" t="n">
         <v>125.1921461296497</v>
@@ -7414,49 +7414,49 @@
         <v>291.8416560478772</v>
       </c>
       <c r="K41" t="n">
-        <v>541.6060719863825</v>
+        <v>541.6060719863826</v>
       </c>
       <c r="L41" t="n">
-        <v>851.4609156385205</v>
+        <v>851.460915638521</v>
       </c>
       <c r="M41" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N41" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125325</v>
       </c>
       <c r="O41" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P41" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776933</v>
       </c>
       <c r="Q41" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S41" t="n">
-        <v>2495.142612639762</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T41" t="n">
-        <v>2495.142612639762</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="U41" t="n">
-        <v>2495.142612639762</v>
+        <v>2198.080404093059</v>
       </c>
       <c r="V41" t="n">
-        <v>2495.142612639762</v>
+        <v>1835.463454026886</v>
       </c>
       <c r="W41" t="n">
-        <v>2495.142612639762</v>
+        <v>1835.463454026886</v>
       </c>
       <c r="X41" t="n">
-        <v>2495.142612639762</v>
+        <v>1835.463454026886</v>
       </c>
       <c r="Y41" t="n">
-        <v>2086.856488939415</v>
+        <v>1835.463454026886</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G42" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H42" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I42" t="n">
-        <v>86.07360363779618</v>
+        <v>86.07360363779621</v>
       </c>
       <c r="J42" t="n">
-        <v>185.3289100816567</v>
+        <v>185.3289100816568</v>
       </c>
       <c r="K42" t="n">
-        <v>259.9894019238653</v>
+        <v>354.9720379468262</v>
       </c>
       <c r="L42" t="n">
-        <v>488.095522600868</v>
+        <v>583.078158623829</v>
       </c>
       <c r="M42" t="n">
-        <v>754.2846063602951</v>
+        <v>849.2672423832562</v>
       </c>
       <c r="N42" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O42" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276418</v>
       </c>
       <c r="P42" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.06932016179</v>
       </c>
       <c r="Q42" t="n">
         <v>1612.190320866098</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1041.384782814867</v>
+        <v>928.3554190919107</v>
       </c>
       <c r="C43" t="n">
-        <v>920.4863416095401</v>
+        <v>755.7937075751356</v>
       </c>
       <c r="D43" t="n">
-        <v>754.6083488110628</v>
+        <v>589.9157147766583</v>
       </c>
       <c r="E43" t="n">
-        <v>584.8503450618</v>
+        <v>420.1577110273956</v>
       </c>
       <c r="F43" t="n">
-        <v>408.1432910235562</v>
+        <v>243.4506569891518</v>
       </c>
       <c r="G43" t="n">
         <v>243.4506569891518</v>
@@ -7566,55 +7566,55 @@
         <v>111.538217580372</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="J43" t="n">
         <v>198.7521269616892</v>
       </c>
       <c r="K43" t="n">
-        <v>575.8386456160097</v>
+        <v>301.080191044874</v>
       </c>
       <c r="L43" t="n">
-        <v>1124.993219091045</v>
+        <v>577.5111244639805</v>
       </c>
       <c r="M43" t="n">
-        <v>1521.286192798211</v>
+        <v>1175.05780924946</v>
       </c>
       <c r="N43" t="n">
-        <v>1656.066185185711</v>
+        <v>1752.096604794604</v>
       </c>
       <c r="O43" t="n">
-        <v>1780.557322929479</v>
+        <v>2296.256991764154</v>
       </c>
       <c r="P43" t="n">
-        <v>2234.587891748232</v>
+        <v>2402.780666612565</v>
       </c>
       <c r="Q43" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R43" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S43" t="n">
-        <v>2351.562104678987</v>
+        <v>2385.435650315257</v>
       </c>
       <c r="T43" t="n">
-        <v>2351.562104678987</v>
+        <v>2143.395851545447</v>
       </c>
       <c r="U43" t="n">
-        <v>2073.178120710625</v>
+        <v>1865.011867577085</v>
       </c>
       <c r="V43" t="n">
-        <v>1786.222612581055</v>
+        <v>1865.011867577085</v>
       </c>
       <c r="W43" t="n">
-        <v>1514.196208167347</v>
+        <v>1592.985463163377</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.804453500759</v>
+        <v>1347.59370849679</v>
       </c>
       <c r="Y43" t="n">
-        <v>1041.384782814867</v>
+        <v>1120.174037810898</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>483.6775970945001</v>
+        <v>1205.023497368459</v>
       </c>
       <c r="C44" t="n">
-        <v>483.6775970945001</v>
+        <v>766.8810245518821</v>
       </c>
       <c r="D44" t="n">
-        <v>483.6775970945001</v>
+        <v>766.8810245518821</v>
       </c>
       <c r="E44" t="n">
-        <v>49.90285225279524</v>
+        <v>766.8810245518821</v>
       </c>
       <c r="F44" t="n">
-        <v>49.90285225279524</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G44" t="n">
-        <v>49.90285225279524</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H44" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I44" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296498</v>
       </c>
       <c r="J44" t="n">
-        <v>291.8416560478771</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K44" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863826</v>
       </c>
       <c r="L44" t="n">
-        <v>851.4609156385205</v>
+        <v>851.460915638521</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N44" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125325</v>
       </c>
       <c r="O44" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.41360479327</v>
       </c>
       <c r="P44" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776933</v>
       </c>
       <c r="Q44" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S44" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T44" t="n">
-        <v>2245.844944272481</v>
+        <v>2245.844944272482</v>
       </c>
       <c r="U44" t="n">
-        <v>1986.782910855321</v>
+        <v>1986.782910855322</v>
       </c>
       <c r="V44" t="n">
-        <v>1624.165960789147</v>
+        <v>1624.165960789148</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.31050620018</v>
+        <v>1624.165960789148</v>
       </c>
       <c r="X44" t="n">
-        <v>800.1680427794912</v>
+        <v>1205.023497368459</v>
       </c>
       <c r="Y44" t="n">
-        <v>483.6775970945001</v>
+        <v>1205.023497368459</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G45" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H45" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I45" t="n">
-        <v>86.07360363779618</v>
+        <v>86.07360363779621</v>
       </c>
       <c r="J45" t="n">
-        <v>185.3289100816567</v>
+        <v>185.3289100816568</v>
       </c>
       <c r="K45" t="n">
-        <v>354.972037946826</v>
+        <v>354.9720379468262</v>
       </c>
       <c r="L45" t="n">
-        <v>583.0781586238288</v>
+        <v>583.078158623829</v>
       </c>
       <c r="M45" t="n">
-        <v>849.2672423832558</v>
+        <v>849.2672423832562</v>
       </c>
       <c r="N45" t="n">
         <v>1122.501559119456</v>
       </c>
       <c r="O45" t="n">
-        <v>1372.457578276417</v>
+        <v>1372.457578276418</v>
       </c>
       <c r="P45" t="n">
-        <v>1573.069320161789</v>
+        <v>1478.086684138829</v>
       </c>
       <c r="Q45" t="n">
-        <v>1677.417474573878</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R45" t="n">
         <v>1677.417474573878</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1093.048053126315</v>
+        <v>894.4818734556413</v>
       </c>
       <c r="C46" t="n">
-        <v>920.4863416095401</v>
+        <v>721.9201619388663</v>
       </c>
       <c r="D46" t="n">
-        <v>754.6083488110628</v>
+        <v>721.9201619388663</v>
       </c>
       <c r="E46" t="n">
-        <v>584.8503450618</v>
+        <v>552.1621581896036</v>
       </c>
       <c r="F46" t="n">
-        <v>408.1432910235562</v>
+        <v>375.4551041513598</v>
       </c>
       <c r="G46" t="n">
-        <v>243.4506569891518</v>
+        <v>210.7624701169554</v>
       </c>
       <c r="H46" t="n">
         <v>111.538217580372</v>
       </c>
       <c r="I46" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="J46" t="n">
         <v>198.7521269616892</v>
       </c>
       <c r="K46" t="n">
-        <v>301.080191044874</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L46" t="n">
-        <v>850.2347645199089</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M46" t="n">
-        <v>1175.057809249459</v>
+        <v>1263.056036695611</v>
       </c>
       <c r="N46" t="n">
-        <v>1752.096604794604</v>
+        <v>1397.836029083111</v>
       </c>
       <c r="O46" t="n">
-        <v>2296.256991764153</v>
+        <v>1780.55732292948</v>
       </c>
       <c r="P46" t="n">
-        <v>2402.780666612564</v>
+        <v>2234.587891748233</v>
       </c>
       <c r="Q46" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R46" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S46" t="n">
-        <v>2495.142612639762</v>
+        <v>2351.562104678987</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.102813869953</v>
+        <v>2109.522305909178</v>
       </c>
       <c r="U46" t="n">
-        <v>1974.718829901591</v>
+        <v>1831.138321940816</v>
       </c>
       <c r="V46" t="n">
-        <v>1974.718829901591</v>
+        <v>1831.138321940816</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.678097197782</v>
+        <v>1559.111917527108</v>
       </c>
       <c r="X46" t="n">
-        <v>1512.286342531194</v>
+        <v>1313.72016286052</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.866671845302</v>
+        <v>1086.300492174629</v>
       </c>
     </row>
   </sheetData>
@@ -8850,19 +8850,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>6.525705103702535</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>229.6216911390744</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>260.8385415177781</v>
+        <v>260.8385415177786</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10038,7 +10038,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>259.3644329745259</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>260.8385415177772</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10275,19 +10275,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>219.1476471612607</v>
+        <v>123.438647982168</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10512,16 +10512,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>260.8385415177777</v>
       </c>
       <c r="N34" t="n">
-        <v>259.3644329745244</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>234.4100271482035</v>
       </c>
       <c r="M37" t="n">
-        <v>260.838541517777</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>163.6554337954308</v>
+        <v>260.8385415177777</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11220,25 +11220,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>146.9557997091238</v>
       </c>
       <c r="M43" t="n">
-        <v>260.8385415177777</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>188.6466940656401</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>260.8385415177786</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>396.0272147048449</v>
       </c>
       <c r="D11" t="n">
-        <v>79.15519915458299</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>136.392668402005</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>167.2505271530311</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>113.9068280192255</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>66.1701590111069</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>148.9270506213701</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>408.2161355107258</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>81.28948269514851</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>32.70605250968055</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>254.5875093574904</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>173.4861468346814</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>63.56280010670648</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H23" t="n">
         <v>265.9270524809863</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.62017337824729</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.1845183053605</v>
@@ -24265,13 +24265,13 @@
         <v>256.471413082989</v>
       </c>
       <c r="V23" t="n">
-        <v>13.79721688726153</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>172.1579119155733</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0457076940604</v>
+        <v>124.8349313627554</v>
       </c>
       <c r="H25" t="n">
         <v>130.593315014692</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>126.0084365391884</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>37.62017337824727</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>166.4326218372646</v>
       </c>
       <c r="V26" t="n">
-        <v>159.8170103028952</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>146.9094413520821</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.593315014692</v>
+        <v>3.466460768973548</v>
       </c>
       <c r="I28" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.62017337824729</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T29" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U29" t="n">
-        <v>256.471413082989</v>
+        <v>92.56325372852481</v>
       </c>
       <c r="V29" t="n">
-        <v>2.387630198562135</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>130.593315014692</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>126.0084365391882</v>
+        <v>46.11630711332643</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>134.537738537327</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T32" t="n">
-        <v>118.6365250152031</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U32" t="n">
         <v>256.471413082989</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.9094413520822</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>148.3868343399791</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>357.9416115405982</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.62017337824729</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>161.4101355924348</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>58.91093231453613</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>126.0084365391893</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>61.01901167430096</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>418.5344465084945</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>279.6053386930669</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>209.1845183053605</v>
       </c>
       <c r="U38" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.008436539188</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>126.0084365391889</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0457076940604</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>355.680538200302</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>346.0330128959491</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.62017337824729</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U41" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>51.14663760833336</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>33.53481017990637</v>
       </c>
       <c r="T43" t="n">
-        <v>239.619400782111</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>375.1079380981903</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>90.87772123520188</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>32.36130500347443</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>54.43581499280049</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>320256.9178997049</v>
+        <v>320256.917899705</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>320256.9178997049</v>
+        <v>320256.917899705</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>334713.9745169472</v>
+        <v>334713.9745169474</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>334713.9745169473</v>
+        <v>334713.9745169474</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>334713.9745169472</v>
+        <v>334713.9745169473</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>334713.9745169473</v>
+        <v>334713.9745169474</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>334713.9745169473</v>
+        <v>334713.9745169475</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>418707.7063118333</v>
       </c>
       <c r="D2" t="n">
-        <v>418707.7063118332</v>
+        <v>418707.7063118333</v>
       </c>
       <c r="E2" t="n">
         <v>251676.1140813078</v>
       </c>
       <c r="F2" t="n">
-        <v>251676.1140813077</v>
+        <v>251676.1140813078</v>
       </c>
       <c r="G2" t="n">
         <v>251676.1140813078</v>
       </c>
       <c r="H2" t="n">
-        <v>251676.1140813077</v>
+        <v>251676.1140813078</v>
       </c>
       <c r="I2" t="n">
+        <v>262836.154201405</v>
+      </c>
+      <c r="J2" t="n">
+        <v>262836.154201405</v>
+      </c>
+      <c r="K2" t="n">
+        <v>262836.154201405</v>
+      </c>
+      <c r="L2" t="n">
         <v>262836.1542014049</v>
       </c>
-      <c r="J2" t="n">
-        <v>262836.1542014048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>262836.1542014048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>262836.1542014048</v>
-      </c>
       <c r="M2" t="n">
-        <v>262836.1542014048</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="N2" t="n">
-        <v>262836.1542014048</v>
+        <v>262836.154201405</v>
       </c>
       <c r="O2" t="n">
-        <v>262836.1542014049</v>
+        <v>262836.154201405</v>
       </c>
       <c r="P2" t="n">
-        <v>262836.1542014049</v>
+        <v>262836.154201405</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29024.76432745924</v>
+        <v>29024.76432745943</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025714</v>
+        <v>147050.7684025715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>21859.30180364563</v>
+        <v>21859.30180364564</v>
       </c>
       <c r="F4" t="n">
         <v>21859.30180364563</v>
       </c>
       <c r="G4" t="n">
+        <v>21859.30180364563</v>
+      </c>
+      <c r="H4" t="n">
         <v>21859.30180364564</v>
       </c>
-      <c r="H4" t="n">
-        <v>21859.30180364563</v>
-      </c>
       <c r="I4" t="n">
-        <v>23084.42543181316</v>
+        <v>23084.42543181317</v>
       </c>
       <c r="J4" t="n">
-        <v>23084.42543181315</v>
+        <v>23084.42543181317</v>
       </c>
       <c r="K4" t="n">
-        <v>23084.42543181316</v>
+        <v>23084.42543181317</v>
       </c>
       <c r="L4" t="n">
         <v>23084.42543181315</v>
       </c>
       <c r="M4" t="n">
-        <v>23084.42543181315</v>
+        <v>23084.42543181316</v>
       </c>
       <c r="N4" t="n">
         <v>23084.42543181315</v>
       </c>
       <c r="O4" t="n">
-        <v>23084.42543181316</v>
+        <v>23084.42543181317</v>
       </c>
       <c r="P4" t="n">
-        <v>23084.42543181316</v>
+        <v>23084.42543181317</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
@@ -26490,28 +26490,28 @@
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
+        <v>48681.28220745479</v>
+      </c>
+      <c r="J5" t="n">
+        <v>48681.28220745479</v>
+      </c>
+      <c r="K5" t="n">
+        <v>48681.28220745479</v>
+      </c>
+      <c r="L5" t="n">
         <v>48681.28220745477</v>
       </c>
-      <c r="J5" t="n">
-        <v>48681.28220745476</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>48681.28220745477</v>
       </c>
-      <c r="L5" t="n">
-        <v>48681.28220745476</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48681.28220745476</v>
-      </c>
       <c r="N5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745478</v>
       </c>
       <c r="O5" t="n">
-        <v>48681.28220745477</v>
+        <v>48681.28220745479</v>
       </c>
       <c r="P5" t="n">
-        <v>48681.28220745477</v>
+        <v>48681.28220745479</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.48328249886</v>
       </c>
       <c r="C6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.48328249891</v>
       </c>
       <c r="D6" t="n">
-        <v>86349.39000000042</v>
+        <v>86317.48328249886</v>
       </c>
       <c r="E6" t="n">
-        <v>-367369.4699226514</v>
+        <v>-367923.3503658733</v>
       </c>
       <c r="F6" t="n">
-        <v>183765.7310680243</v>
+        <v>183211.8506248024</v>
       </c>
       <c r="G6" t="n">
-        <v>183765.7310680243</v>
+        <v>183211.8506248023</v>
       </c>
       <c r="H6" t="n">
-        <v>183765.7310680243</v>
+        <v>183211.8506248023</v>
       </c>
       <c r="I6" t="n">
-        <v>162045.6822346777</v>
+        <v>161526.676916831</v>
       </c>
       <c r="J6" t="n">
-        <v>191070.4465621369</v>
+        <v>190551.4412442904</v>
       </c>
       <c r="K6" t="n">
-        <v>191070.4465621369</v>
+        <v>190551.4412442904</v>
       </c>
       <c r="L6" t="n">
-        <v>191070.4465621369</v>
+        <v>190551.4412442904</v>
       </c>
       <c r="M6" t="n">
-        <v>44019.67815956549</v>
+        <v>43500.67284171892</v>
       </c>
       <c r="N6" t="n">
-        <v>191070.4465621369</v>
+        <v>190551.4412442904</v>
       </c>
       <c r="O6" t="n">
-        <v>191070.446562137</v>
+        <v>190551.4412442904</v>
       </c>
       <c r="P6" t="n">
-        <v>191070.446562137</v>
+        <v>190551.4412442904</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.353875932587</v>
       </c>
       <c r="J3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.353875932587</v>
       </c>
       <c r="K3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.353875932587</v>
       </c>
       <c r="L3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.353875932587</v>
       </c>
       <c r="M3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.353875932587</v>
       </c>
       <c r="N3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.353875932587</v>
       </c>
       <c r="O3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.353875932587</v>
       </c>
       <c r="P3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.353875932587</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
@@ -26810,28 +26810,28 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
+        <v>623.7856531599407</v>
+      </c>
+      <c r="J4" t="n">
+        <v>623.7856531599407</v>
+      </c>
+      <c r="K4" t="n">
+        <v>623.7856531599407</v>
+      </c>
+      <c r="L4" t="n">
         <v>623.7856531599405</v>
       </c>
-      <c r="J4" t="n">
-        <v>623.7856531599402</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>623.7856531599405</v>
       </c>
-      <c r="L4" t="n">
-        <v>623.7856531599402</v>
-      </c>
-      <c r="M4" t="n">
-        <v>623.7856531599402</v>
-      </c>
       <c r="N4" t="n">
-        <v>623.7856531599404</v>
+        <v>623.7856531599406</v>
       </c>
       <c r="O4" t="n">
-        <v>623.7856531599405</v>
+        <v>623.7856531599407</v>
       </c>
       <c r="P4" t="n">
-        <v>623.7856531599405</v>
+        <v>623.7856531599407</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.65194783936562</v>
+        <v>26.65194783936579</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33.70375879800622</v>
+        <v>33.70375879800645</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.983332164553111</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H23" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I23" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J23" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K23" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M23" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403484</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.1775612848849</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R23" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S23" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T23" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331253</v>
       </c>
       <c r="U23" t="n">
         <v>0.1586665731642489</v>
@@ -32785,43 +32785,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J24" t="n">
-        <v>4.31582870798033</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L24" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N24" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O24" t="n">
-        <v>252.4808274312739</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P24" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165375</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.458218916434</v>
+        <v>39.51616232758465</v>
       </c>
       <c r="R24" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624249</v>
       </c>
       <c r="S24" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T24" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698559</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630951</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702387</v>
       </c>
       <c r="H25" t="n">
-        <v>7.909837551837216</v>
+        <v>7.909837551837219</v>
       </c>
       <c r="I25" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877046</v>
       </c>
       <c r="J25" t="n">
-        <v>62.89857529717585</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K25" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L25" t="n">
-        <v>132.2673653606807</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M25" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N25" t="n">
         <v>136.1414064520203</v>
@@ -32885,22 +32885,22 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P25" t="n">
-        <v>107.5996715640513</v>
+        <v>107.5996715640514</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R25" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S25" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.04852661074746762</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.983332164553111</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H26" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I26" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393393</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K26" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403485</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.1775612848849</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R26" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S26" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975409</v>
       </c>
       <c r="T26" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331253</v>
       </c>
       <c r="U26" t="n">
         <v>0.1586665731642489</v>
@@ -33022,43 +33022,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J27" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707978966</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L27" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M27" t="n">
-        <v>172.9358057944113</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N27" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O27" t="n">
-        <v>252.4808274312739</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P27" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165375</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.458218916434</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R27" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624249</v>
       </c>
       <c r="S27" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T27" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698559</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630952</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702388</v>
       </c>
       <c r="H28" t="n">
-        <v>7.909837551837216</v>
+        <v>7.90983755183722</v>
       </c>
       <c r="I28" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877046</v>
       </c>
       <c r="J28" t="n">
-        <v>62.89857529717585</v>
+        <v>62.89857529717588</v>
       </c>
       <c r="K28" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L28" t="n">
-        <v>132.2673653606807</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M28" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N28" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O28" t="n">
         <v>125.7486239836043</v>
       </c>
       <c r="P28" t="n">
-        <v>107.5996715640513</v>
+        <v>107.5996715640514</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582064</v>
       </c>
       <c r="R28" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282909</v>
       </c>
       <c r="S28" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T28" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.04852661074746763</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.983332164553111</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H29" t="n">
         <v>20.31180053022956</v>
       </c>
       <c r="I29" t="n">
-        <v>76.4624132739339</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J29" t="n">
         <v>168.3328383012398</v>
@@ -33189,16 +33189,16 @@
         <v>252.2872888267731</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577154</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M29" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N29" t="n">
         <v>353.8909164516234</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403484</v>
       </c>
       <c r="P29" t="n">
         <v>285.2056444279434</v>
@@ -33210,10 +33210,10 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S29" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T29" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331253</v>
       </c>
       <c r="U29" t="n">
         <v>0.1586665731642489</v>
@@ -33259,10 +33259,10 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J30" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707979392</v>
       </c>
       <c r="K30" t="n">
         <v>171.3566948133024</v>
@@ -33271,7 +33271,7 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N30" t="n">
         <v>275.994259329495</v>
@@ -33280,22 +33280,22 @@
         <v>252.480827431274</v>
       </c>
       <c r="P30" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165375</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.458218916434</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R30" t="n">
-        <v>6.480069767495252</v>
+        <v>65.88601384624249</v>
       </c>
       <c r="S30" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T30" t="n">
-        <v>4.277285018698558</v>
+        <v>4.277285018698559</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06981422772630949</v>
+        <v>0.06981422772630951</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8896545303702384</v>
+        <v>0.8896545303702387</v>
       </c>
       <c r="H31" t="n">
-        <v>7.909837551837217</v>
+        <v>7.909837551837219</v>
       </c>
       <c r="I31" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877046</v>
       </c>
       <c r="J31" t="n">
-        <v>62.89857529717586</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K31" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L31" t="n">
-        <v>132.2673653606807</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M31" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N31" t="n">
         <v>136.1414064520203</v>
@@ -33359,10 +33359,10 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P31" t="n">
-        <v>107.5996715640513</v>
+        <v>107.5996715640514</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R31" t="n">
         <v>40.00210279282908</v>
@@ -33371,10 +33371,10 @@
         <v>15.50425213381588</v>
       </c>
       <c r="T31" t="n">
-        <v>3.801251175218291</v>
+        <v>3.801251175218292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.04852661074746762</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.983332164553111</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H32" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I32" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J32" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K32" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M32" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403484</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.1775612848849</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R32" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S32" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T32" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331253</v>
       </c>
       <c r="U32" t="n">
         <v>0.1586665731642489</v>
@@ -33496,43 +33496,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J33" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707979421</v>
       </c>
       <c r="K33" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L33" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N33" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O33" t="n">
-        <v>252.4808274312739</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P33" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165375</v>
       </c>
       <c r="Q33" t="n">
-        <v>105.4021761738277</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>65.88601384624249</v>
       </c>
       <c r="S33" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T33" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698559</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630951</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702387</v>
       </c>
       <c r="H34" t="n">
-        <v>7.909837551837216</v>
+        <v>7.909837551837219</v>
       </c>
       <c r="I34" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877046</v>
       </c>
       <c r="J34" t="n">
-        <v>62.89857529717585</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K34" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L34" t="n">
-        <v>132.2673653606807</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M34" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N34" t="n">
         <v>136.1414064520203</v>
@@ -33596,22 +33596,22 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P34" t="n">
-        <v>107.5996715640513</v>
+        <v>107.5996715640514</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R34" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S34" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.04852661074746762</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.983332164553111</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H35" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I35" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J35" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K35" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M35" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403484</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.1775612848849</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R35" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S35" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T35" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331253</v>
       </c>
       <c r="U35" t="n">
         <v>0.1586665731642489</v>
@@ -33733,43 +33733,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I36" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J36" t="n">
         <v>100.2578852968288</v>
       </c>
       <c r="K36" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M36" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N36" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O36" t="n">
-        <v>252.4808274312739</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P36" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276879</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.4021761738277</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>65.88601384624249</v>
       </c>
       <c r="S36" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T36" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698559</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630951</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702387</v>
       </c>
       <c r="H37" t="n">
-        <v>7.909837551837216</v>
+        <v>7.909837551837219</v>
       </c>
       <c r="I37" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877046</v>
       </c>
       <c r="J37" t="n">
-        <v>62.89857529717585</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K37" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L37" t="n">
-        <v>132.2673653606807</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M37" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N37" t="n">
         <v>136.1414064520203</v>
@@ -33833,22 +33833,22 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P37" t="n">
-        <v>107.5996715640513</v>
+        <v>107.5996715640514</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R37" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S37" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T37" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.04852661074746762</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.983332164553111</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H38" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I38" t="n">
-        <v>76.46241327393389</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J38" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K38" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M38" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403484</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.1775612848849</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R38" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S38" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T38" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331253</v>
       </c>
       <c r="U38" t="n">
         <v>0.1586665731642489</v>
@@ -33970,43 +33970,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J39" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707979406</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N39" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O39" t="n">
-        <v>252.4808274312739</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165375</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.458218916434</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R39" t="n">
-        <v>6.480069767495479</v>
+        <v>65.88601384624249</v>
       </c>
       <c r="S39" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T39" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698559</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630951</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702387</v>
       </c>
       <c r="H40" t="n">
-        <v>7.909837551837216</v>
+        <v>7.909837551837219</v>
       </c>
       <c r="I40" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877046</v>
       </c>
       <c r="J40" t="n">
-        <v>62.89857529717585</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K40" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L40" t="n">
-        <v>132.2673653606807</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M40" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N40" t="n">
         <v>136.1414064520203</v>
@@ -34070,22 +34070,22 @@
         <v>125.7486239836043</v>
       </c>
       <c r="P40" t="n">
-        <v>107.5996715640513</v>
+        <v>107.5996715640514</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R40" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S40" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T40" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.04852661074746762</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,31 +34122,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.983332164553111</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H41" t="n">
         <v>20.31180053022956</v>
       </c>
       <c r="I41" t="n">
-        <v>76.4624132739339</v>
+        <v>76.46241327393393</v>
       </c>
       <c r="J41" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K41" t="n">
         <v>252.2872888267731</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577154</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M41" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403485</v>
       </c>
       <c r="P41" t="n">
         <v>285.2056444279434</v>
@@ -34158,10 +34158,10 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S41" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975409</v>
       </c>
       <c r="T41" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331253</v>
       </c>
       <c r="U41" t="n">
         <v>0.1586665731642489</v>
@@ -34207,43 +34207,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I42" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K42" t="n">
-        <v>75.41463822445311</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L42" t="n">
         <v>230.4102229060634</v>
       </c>
       <c r="M42" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N42" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O42" t="n">
         <v>252.480827431274</v>
       </c>
       <c r="P42" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165375</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.458218916434</v>
+        <v>39.5161623275842</v>
       </c>
       <c r="R42" t="n">
-        <v>65.88601384624248</v>
+        <v>65.88601384624249</v>
       </c>
       <c r="S42" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T42" t="n">
-        <v>4.277285018698558</v>
+        <v>4.277285018698559</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06981422772630949</v>
+        <v>0.06981422772630952</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8896545303702384</v>
+        <v>0.8896545303702388</v>
       </c>
       <c r="H43" t="n">
-        <v>7.909837551837217</v>
+        <v>7.90983755183722</v>
       </c>
       <c r="I43" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877046</v>
       </c>
       <c r="J43" t="n">
-        <v>62.89857529717586</v>
+        <v>62.89857529717588</v>
       </c>
       <c r="K43" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L43" t="n">
-        <v>132.2673653606807</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M43" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N43" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O43" t="n">
         <v>125.7486239836043</v>
       </c>
       <c r="P43" t="n">
-        <v>107.5996715640513</v>
+        <v>107.5996715640514</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582064</v>
       </c>
       <c r="R43" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282909</v>
       </c>
       <c r="S43" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T43" t="n">
-        <v>3.801251175218291</v>
+        <v>3.801251175218292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.04852661074746763</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.983332164553111</v>
+        <v>1.983332164553112</v>
       </c>
       <c r="H44" t="n">
         <v>20.31180053022956</v>
       </c>
       <c r="I44" t="n">
-        <v>76.4624132739339</v>
+        <v>76.46241327393393</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K44" t="n">
         <v>252.2872888267731</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577154</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403485</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279434</v>
+        <v>285.2056444279428</v>
       </c>
       <c r="Q44" t="n">
         <v>214.177561284885</v>
@@ -34395,10 +34395,10 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S44" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975409</v>
       </c>
       <c r="T44" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331253</v>
       </c>
       <c r="U44" t="n">
         <v>0.1586665731642489</v>
@@ -34444,10 +34444,10 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I45" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K45" t="n">
         <v>171.3566948133024</v>
@@ -34456,31 +34456,31 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M45" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N45" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O45" t="n">
         <v>252.480827431274</v>
       </c>
       <c r="P45" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276877</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.4021761738277</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>65.88601384624249</v>
       </c>
       <c r="S45" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T45" t="n">
-        <v>4.277285018698558</v>
+        <v>4.277285018698559</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06981422772630949</v>
+        <v>0.06981422772630952</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8896545303702384</v>
+        <v>0.8896545303702388</v>
       </c>
       <c r="H46" t="n">
-        <v>7.909837551837217</v>
+        <v>7.90983755183722</v>
       </c>
       <c r="I46" t="n">
-        <v>26.75433805877045</v>
+        <v>26.75433805877046</v>
       </c>
       <c r="J46" t="n">
-        <v>62.89857529717586</v>
+        <v>62.89857529717588</v>
       </c>
       <c r="K46" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L46" t="n">
-        <v>132.2673653606807</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M46" t="n">
-        <v>139.4573915197638</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N46" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O46" t="n">
         <v>125.7486239836043</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5996715640513</v>
+        <v>107.5996715640514</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582064</v>
       </c>
       <c r="R46" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282909</v>
       </c>
       <c r="S46" t="n">
         <v>15.50425213381588</v>
       </c>
       <c r="T46" t="n">
-        <v>3.801251175218291</v>
+        <v>3.801251175218292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.04852661074746763</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>138.4493337284798</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,7 +35655,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,13 +35664,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35807,25 +35807,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>194.3982176018706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>354.743712975739</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>296.14752065127</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,16 +36120,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J23" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K23" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M23" t="n">
         <v>348.2557739390868</v>
@@ -36372,7 +36372,7 @@
         <v>353.8909164516233</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P23" t="n">
         <v>285.2056444279433</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J24" t="n">
-        <v>4.31582870798033</v>
+        <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L24" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N24" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O24" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312741</v>
       </c>
       <c r="P24" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.4582189164339</v>
+        <v>39.51616232758465</v>
       </c>
       <c r="R24" t="n">
-        <v>65.88601384624235</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K25" t="n">
-        <v>380.8954733882024</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L25" t="n">
-        <v>554.7015893687222</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M25" t="n">
         <v>139.4573915197639</v>
       </c>
       <c r="N25" t="n">
-        <v>136.1414064520202</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O25" t="n">
-        <v>386.5871655013825</v>
+        <v>386.587165501383</v>
       </c>
       <c r="P25" t="n">
         <v>458.6167361805583</v>
@@ -36539,7 +36539,7 @@
         <v>244.3881270479742</v>
       </c>
       <c r="R25" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114725</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480253</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K26" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267732</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577156</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390868</v>
+        <v>348.255773939087</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516238</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q26" t="n">
         <v>214.1775612848851</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J27" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707978966</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L27" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M27" t="n">
-        <v>172.9358057944113</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N27" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O27" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312741</v>
       </c>
       <c r="P27" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165376</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.4582189164339</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R27" t="n">
-        <v>65.88601384624235</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,19 +36755,19 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K28" t="n">
-        <v>380.8954733882024</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L28" t="n">
-        <v>554.7015893687222</v>
+        <v>391.6317983352067</v>
       </c>
       <c r="M28" t="n">
         <v>139.4573915197639</v>
       </c>
       <c r="N28" t="n">
-        <v>136.1414064520202</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O28" t="n">
-        <v>386.5871655013816</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P28" t="n">
         <v>458.6167361805583</v>
@@ -36776,7 +36776,7 @@
         <v>244.3881270479742</v>
       </c>
       <c r="R28" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114726</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.0497917948025</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J29" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012404</v>
       </c>
       <c r="K29" t="n">
         <v>252.2872888267731</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M29" t="n">
         <v>348.2557739390868</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516238</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P29" t="n">
         <v>285.2056444279433</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J30" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707979392</v>
       </c>
       <c r="K30" t="n">
         <v>171.3566948133024</v>
@@ -36919,7 +36919,7 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N30" t="n">
         <v>275.994259329495</v>
@@ -36934,7 +36934,7 @@
         <v>135.4582189164341</v>
       </c>
       <c r="R30" t="n">
-        <v>6.480069767495252</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,25 +36995,25 @@
         <v>380.8954733882025</v>
       </c>
       <c r="L31" t="n">
-        <v>351.4150125219414</v>
+        <v>255.7060133428488</v>
       </c>
       <c r="M31" t="n">
         <v>603.5825098843225</v>
       </c>
       <c r="N31" t="n">
-        <v>136.1414064520204</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O31" t="n">
         <v>125.7486239836044</v>
       </c>
       <c r="P31" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q31" t="n">
         <v>244.3881270479742</v>
       </c>
       <c r="R31" t="n">
-        <v>18.79845971114724</v>
+        <v>18.79845971114725</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J32" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K32" t="n">
-        <v>252.2872888267731</v>
+        <v>252.2872888267732</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M32" t="n">
-        <v>348.2557739390866</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N32" t="n">
         <v>353.8909164516233</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J33" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707979421</v>
       </c>
       <c r="K33" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L33" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N33" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O33" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312741</v>
       </c>
       <c r="P33" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>105.4021761738277</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K34" t="n">
-        <v>380.8954733882024</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L34" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M34" t="n">
-        <v>139.4573915197637</v>
+        <v>400.2959330375415</v>
       </c>
       <c r="N34" t="n">
-        <v>395.5058394265448</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O34" t="n">
-        <v>549.6569565348987</v>
+        <v>125.7486239836044</v>
       </c>
       <c r="P34" t="n">
         <v>458.6167361805583</v>
@@ -37250,7 +37250,7 @@
         <v>244.3881270479742</v>
       </c>
       <c r="R34" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114725</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K35" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L35" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577156</v>
       </c>
       <c r="M35" t="n">
         <v>348.2557739390868</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O35" t="n">
         <v>334.1691572403483</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J36" t="n">
         <v>100.2578852968288</v>
       </c>
       <c r="K36" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L36" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M36" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N36" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O36" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312741</v>
       </c>
       <c r="P36" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276879</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.4021761738277</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717588</v>
       </c>
       <c r="K37" t="n">
-        <v>380.8954733882024</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L37" t="n">
-        <v>554.7015893687222</v>
+        <v>366.6773925088843</v>
       </c>
       <c r="M37" t="n">
-        <v>400.2959330375409</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N37" t="n">
-        <v>136.1414064520204</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O37" t="n">
-        <v>125.7486239836044</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P37" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q37" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R37" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114725</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.04979179480249</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J38" t="n">
         <v>168.3328383012398</v>
       </c>
       <c r="K38" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M38" t="n">
         <v>348.2557739390868</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O38" t="n">
         <v>334.1691572403483</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J39" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707979406</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M39" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N39" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O39" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312741</v>
       </c>
       <c r="P39" t="n">
         <v>202.6381231165374</v>
@@ -37645,7 +37645,7 @@
         <v>135.4582189164341</v>
       </c>
       <c r="R39" t="n">
-        <v>6.480069767495479</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,28 +37703,28 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K40" t="n">
-        <v>380.8954733882024</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L40" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M40" t="n">
-        <v>303.1128253151945</v>
+        <v>400.2959330375415</v>
       </c>
       <c r="N40" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O40" t="n">
-        <v>549.6569565348987</v>
+        <v>125.7486239836044</v>
       </c>
       <c r="P40" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q40" t="n">
         <v>244.3881270479746</v>
       </c>
       <c r="R40" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114725</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.0497917948025</v>
+        <v>76.04979179480253</v>
       </c>
       <c r="J41" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K41" t="n">
-        <v>252.2872888267731</v>
+        <v>252.2872888267732</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577156</v>
       </c>
       <c r="M41" t="n">
-        <v>348.2557739390868</v>
+        <v>348.255773939087</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516238</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P41" t="n">
         <v>285.2056444279433</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K42" t="n">
-        <v>75.41463822445311</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060635</v>
       </c>
       <c r="M42" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N42" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O42" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P42" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165376</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.4582189164341</v>
+        <v>39.5161623275842</v>
       </c>
       <c r="R42" t="n">
         <v>65.88601384624258</v>
@@ -37940,28 +37940,28 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K43" t="n">
-        <v>380.8954733882025</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L43" t="n">
-        <v>554.7015893687224</v>
+        <v>279.2231650698046</v>
       </c>
       <c r="M43" t="n">
-        <v>400.2959330375415</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N43" t="n">
-        <v>136.1414064520204</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O43" t="n">
-        <v>125.7486239836044</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P43" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q43" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R43" t="n">
-        <v>18.79845971114724</v>
+        <v>18.79845971114726</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.0497917948025</v>
+        <v>76.04979179480253</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K44" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577156</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390868</v>
+        <v>348.255773939087</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516238</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403486</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279428</v>
       </c>
       <c r="Q44" t="n">
         <v>214.1775612848851</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K45" t="n">
         <v>171.3566948133024</v>
       </c>
       <c r="L45" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060635</v>
       </c>
       <c r="M45" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N45" t="n">
         <v>275.9942593294951</v>
       </c>
       <c r="O45" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312741</v>
       </c>
       <c r="P45" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276877</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.4021761738277</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,28 +38177,28 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K46" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L46" t="n">
-        <v>554.7015893687221</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M46" t="n">
-        <v>328.1040855854039</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N46" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O46" t="n">
-        <v>549.6569565348987</v>
+        <v>386.587165501383</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R46" t="n">
-        <v>18.79845971114724</v>
+        <v>18.79845971114726</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
